--- a/output/Resultater.xlsx
+++ b/output/Resultater.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -939,17 +939,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ski</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>01.10.2022</t>
+          <t>29.10.2022</t>
         </is>
       </c>
     </row>
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23,90</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -999,119 +999,119 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Skogsvåg IL</t>
+          <t>Vestby IL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kenneth Sangolt</t>
+          <t>Marcel Grohmann</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>23,90</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ski</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>01.10.2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jægervatnet IL</t>
+          <t>Skogsvåg IL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kjell Ivar Robertsen</t>
+          <t>Kenneth Sangolt</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1964</v>
+        <v>1981</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>26.03.2022</t>
+          <t>19.03.2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Samhald IL</t>
+          <t>Jægervatnet IL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Kjell Ivar Robertsen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1950</v>
+        <v>1964</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1128,59 +1128,59 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Samhald IL</t>
+          <t>Vestby IL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Marcel Grohmann</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7,60</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>21.08.2022</t>
+          <t>29.10.2022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jægervatnet IL</t>
+          <t>Samhald IL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1189,15 +1189,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kjell Ivar Robertsen</t>
+          <t>Oddbjørn Bergheim</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1964</v>
+        <v>1950</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1214,41 +1214,127 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
+          <t>Samhald IL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>32</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Oddbjørn Bergheim</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7,60</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Jægervatnet IL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Troms</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kjell Ivar Robertsen</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1964</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>26.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jægervatnet IL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Kjell Ivar Robertsen</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G24" t="n">
         <v>1964</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>2,13</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>26.03.2022</t>
         </is>
@@ -1343,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H64"/>
+  <dimension ref="B2:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,20 +2344,20 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Ski</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>01.10.2022</t>
+          <t>29.10.2022</t>
         </is>
       </c>
     </row>
@@ -2305,6 +2391,39 @@
       <c r="H64" t="inlineStr">
         <is>
           <t>01.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Marcel Grohmann</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>114</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>29.10.2022</t>
         </is>
       </c>
     </row>

--- a/output/Resultater.xlsx
+++ b/output/Resultater.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Begnadalen IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -621,34 +621,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Marcin Gasiorowski</t>
+          <t>Truls Engen Olsen</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1981</v>
+        <v>2003</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>54,83</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Løten</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09.07.2022</t>
+          <t>09.10.2022</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -681,313 +681,313 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Fagernes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>06.06.2022</t>
+          <t>09.07.2022</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Birkenes IL</t>
+          <t>Begnadalen IL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>727</v>
+        <v>808</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kenneth Bjorvatn</t>
+          <t>Marcin Gasiorowski</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fagernes</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>05.02.2022</t>
+          <t>06.06.2022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Stårheim IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>474</v>
+        <v>770</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ole Tomas Ytrehus</t>
+          <t>Truls Engen Olsen</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>51,39</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Florø</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.03.2022</t>
+          <t>25.06.2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eidsvold IF</t>
+          <t>Birkenes IL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>471</v>
+        <v>727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Kenneth Bjorvatn</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>29.05.2022</t>
+          <t>05.02.2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eidsvold IF</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>353</v>
+        <v>695</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Emil Lukassen Tårneby</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,50</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.06.2022</t>
+          <t>22.10.2022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eidsvold IF</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>330</v>
+        <v>652</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Emil Lukassen Tårneby</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>42,62</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Løten</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28.05.2022</t>
+          <t>09.10.2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vestby IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>303</v>
+        <v>634</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marcel Grohmann</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>41,35</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29.10.2022</t>
+          <t>19.08.2022</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vestby IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>294</v>
+        <v>610</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marcel Grohmann</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>39,66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ski</t>
+          <t>Løten</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -999,342 +999,1073 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vestby IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221</v>
+        <v>580</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marcel Grohmann</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23,90</t>
+          <t>37,61</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ski</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>01.10.2022</t>
+          <t>10.09.2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Skogsvåg IL</t>
+          <t>Stårheim IL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kenneth Sangolt</t>
+          <t>Ole Tomas Ytrehus</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Florø</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.03.2022</t>
+          <t>12.03.2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jægervatnet IL</t>
+          <t>Eidsvold IF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>180</v>
+        <v>471</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kjell Ivar Robertsen</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1964</v>
+        <v>2008</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>26.03.2022</t>
+          <t>29.05.2022</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vestby IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Marcel Grohmann</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>29.10.2022</t>
+          <t>20.08.2022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Samhald IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1950</v>
+        <v>1982</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>25,06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>26.03.2022</t>
+          <t>20.08.2022</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Samhald IL</t>
+          <t>Eidsvold IF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1950</v>
+        <v>2008</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7,60</t>
+          <t>1,50</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21.08.2022</t>
+          <t>12.06.2022</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jægervatnet IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kjell Ivar Robertsen</t>
+          <t>Kjetil Reistad Aasen</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1964</v>
+        <v>1982</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>26.03.2022</t>
+          <t>10.09.2022</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>350</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>24,89</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>341</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Emil Lukassen Tårneby</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>30,64</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>22.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>338</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Emil Lukassen Tårneby</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>30,47</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>25.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Eidsvold IF</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>330</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Even Ragnhildsløkken</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Oslo/Bi</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>28.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>306</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23,28</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Løten</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>01.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>305</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Truls Engen Olsen</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>28,54</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>25.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vestby IL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>303</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Marcel Grohmann</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1977</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>29.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vestby IL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>294</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Marcel Grohmann</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1977</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Ski</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>01.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>279</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>27,03</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>21.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Løten Friidrett</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Innlandet</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>252</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>25,52</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vestby IL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>221</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Marcel Grohmann</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1977</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>23,90</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Ski</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>01.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Skogsvåg IL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hordaland</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>190</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kenneth Sangolt</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>19.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Jægervatnet IL</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Troms</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D36" t="n">
+        <v>180</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Høyde u.t</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kjell Ivar Robertsen</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1964</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>26.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vestby IL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>114</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Marcel Grohmann</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1977</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>29.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Samhald IL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>34</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Oddbjørn Bergheim</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>26.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Samhald IL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Oddbjørn Bergheim</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1950</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>7,60</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>21.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jægervatnet IL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>26</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kjell Ivar Robertsen</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1964</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>26.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Jægervatnet IL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Kjell Ivar Robertsen</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G41" t="n">
         <v>1964</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>2,13</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>26.03.2022</t>
         </is>
@@ -1429,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H65"/>
+  <dimension ref="B2:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,7 +2691,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Samhald IL</t>
+          <t>Løten Friidrett</t>
         </is>
       </c>
     </row>
@@ -1972,7 +2703,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2016,254 +2747,391 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Truls Engen Olsen</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1950</v>
+        <v>2003</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>54,83</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>34</v>
+        <v>814</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Løten</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>26.03.2022</t>
+          <t>09.10.2022</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Oddbjørn Bergheim</t>
+          <t>Emil Lukassen Tårneby</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1950</v>
+        <v>2003</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7,60</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>32</v>
+        <v>695</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>22.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1982</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>41,35</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>634</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Tromsø</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>21.08.2022</t>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>19.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1982</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9,01</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>374</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>20.08.2022</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Klubb</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Skogsvåg IL</t>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1982</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25,06</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>354</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>20.08.2022</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Krets</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Hordaland</t>
+          <t>Emil Lukassen Tårneby</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30,64</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>341</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Truls Engen Olsen</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28,54</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>305</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>25.09.2022</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Navn</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>F. år</t>
-        </is>
+          <t>Kjetil Reistad Aasen</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1982</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Øvelse</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Resultat</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Poeng</t>
-        </is>
+          <t>27,03</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>279</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sted</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dato</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Kenneth Sangolt</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>190</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Leikvang</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>19.03.2022</t>
+          <t>21.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Klubb</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Samhald IL</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Klubb</t>
+          <t>Krets</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stårheim IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Krets</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Sogn og Fjordane</t>
+          <t>Møre og Romsdal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Navn</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F. år</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Øvelse</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Resultat</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Poeng</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sted</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Dato</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Navn</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>F. år</t>
-        </is>
+          <t>Oddbjørn Bergheim</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1950</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Øvelse</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Resultat</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Poeng</t>
-        </is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>34</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sted</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dato</t>
+          <t>26.03.2022</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ole Tomas Ytrehus</t>
+          <t>Oddbjørn Bergheim</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2004</v>
+        <v>1950</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>7,60</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Florø</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>12.03.2022</t>
+          <t>21.08.2022</t>
         </is>
       </c>
     </row>
@@ -2275,7 +3143,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vestby IL</t>
+          <t>Skogsvåg IL</t>
         </is>
       </c>
     </row>
@@ -2287,7 +3155,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2331,97 +3199,285 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
+          <t>Kenneth Sangolt</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>190</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>19.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Klubb</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Stårheim IL</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Krets</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sogn og Fjordane</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Navn</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F. år</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Øvelse</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Resultat</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Poeng</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Sted</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Dato</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ole Tomas Ytrehus</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>474</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Florø</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>12.03.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Klubb</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Vestby IL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Krets</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Akershus</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Navn</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>F. år</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Øvelse</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Resultat</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Poeng</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Sted</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Dato</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
           <t>Marcel Grohmann</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C77" t="n">
         <v>1977</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Kule</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>8,12</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F77" t="n">
         <v>303</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>29.10.2022</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
+    <row r="78">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Marcel Grohmann</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C78" t="n">
         <v>1977</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>23,90</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F78" t="n">
         <v>221</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Ski</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>01.10.2022</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
+    <row r="79">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Marcel Grohmann</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C79" t="n">
         <v>1977</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Diskos</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>16,63</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F79" t="n">
         <v>114</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>29.10.2022</t>
         </is>
